--- a/biology/Biologie cellulaire et moléculaire/Haplogroupe_CF/Haplogroupe_CF.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Haplogroupe_CF/Haplogroupe_CF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe CF, également connu sous le nom de CF-P143, est un haplogroupe d'ADN du chromosome Y humain. Cette lignée masculine est définie par le polymorphisme nucléotidique (PN, ou polymorphisme d'un seul nucléotide, PSN, en anglais Single Nucleotide Polymorphism, SNP) P143.
 </t>
@@ -511,9 +523,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'haplogroupe CF est un descendant immédiat de l'haplogroupe CT et est l'haplogroupe frère de l'haplogroupe DE. Il est aussi l'ancêtre immédiat de l'haplogroupe C et de l'haplogroupe F[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'haplogroupe CF est un descendant immédiat de l'haplogroupe CT et est l'haplogroupe frère de l'haplogroupe DE. Il est aussi l'ancêtre immédiat de l'haplogroupe C et de l'haplogroupe F.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Extension géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les haplogroupes descendant de CF incluent la plupart des lignées masculines d'Eurasie, d'Océanie et d'Amérique.
 </t>
